--- a/PF7111/TFB_20250307_378_HAND.xlsx
+++ b/PF7111/TFB_20250307_378_HAND.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Documents/TPS/tps_py_tools/PF7111/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFAD4B-A9DF-CF4D-B6A2-C1EAE969BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E6C4F-8C22-B844-B9BB-9EC3CA8E6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11380" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
+    <workbookView xWindow="9040" yWindow="1940" windowWidth="21600" windowHeight="11380" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower Fly By Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
         <v>9.17</v>
       </c>
       <c r="F2">
-        <v>21.26191251823434</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -502,7 +502,7 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="F3">
-        <v>24.910960408579228</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -523,7 +523,7 @@
         <v>9.11</v>
       </c>
       <c r="F4">
-        <v>30.521757827404258</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -544,7 +544,7 @@
         <v>9.14</v>
       </c>
       <c r="F5">
-        <v>36.64080298027676</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -565,7 +565,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F6">
-        <v>42.627189039789869</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -586,7 +586,7 @@
         <v>9.07</v>
       </c>
       <c r="F7">
-        <v>49.185670579479677</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -607,7 +607,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F8">
-        <v>53.999775145085437</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -628,7 +628,7 @@
         <v>9.4</v>
       </c>
       <c r="F9">
-        <v>17.906884706460346</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -649,7 +649,7 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="F10">
-        <v>14.523342068377133</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -670,7 +670,7 @@
         <v>9.31</v>
       </c>
       <c r="F11">
-        <v>14.037626069991802</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -691,7 +691,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F12">
-        <v>24.643081126714662</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -712,7 +712,7 @@
         <v>9.75</v>
       </c>
       <c r="F13">
-        <v>30.379422156978762</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/PF7111/TFB_20250307_378_HAND.xlsx
+++ b/PF7111/TFB_20250307_378_HAND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Documents/TPS/tps_py_tools/PF7111/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E6C4F-8C22-B844-B9BB-9EC3CA8E6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29933FC-E3E2-0146-BFE7-3FF44C5CD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="1940" windowWidth="21600" windowHeight="11380" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
+    <workbookView xWindow="8640" yWindow="1940" windowWidth="21600" windowHeight="11380" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower Fly By Data" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>2.7</v>
       </c>
       <c r="D3" s="1">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="E3" s="1">
         <v>8.7799999999999994</v>
